--- a/data/pca/factorExposure/factorExposure_2013-03-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-4.825150793337229e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002125340723827047</v>
+      </c>
+      <c r="C2">
+        <v>-0.03434922066026618</v>
+      </c>
+      <c r="D2">
+        <v>-0.003077461735474726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.00161196099692908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005941795061450725</v>
+      </c>
+      <c r="C4">
+        <v>-0.08469592154867853</v>
+      </c>
+      <c r="D4">
+        <v>0.07881049797895912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0003788136845525222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01356606174822848</v>
+      </c>
+      <c r="C6">
+        <v>-0.1136172730901635</v>
+      </c>
+      <c r="D6">
+        <v>0.03222673931115145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001735464916020781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004744110829202919</v>
+      </c>
+      <c r="C7">
+        <v>-0.05628289675225309</v>
+      </c>
+      <c r="D7">
+        <v>0.03300078695776093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0002114339798175232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005666401441688886</v>
+      </c>
+      <c r="C8">
+        <v>-0.03884697739767209</v>
+      </c>
+      <c r="D8">
+        <v>0.04168243184669451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003967495940568761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004065797666216813</v>
+      </c>
+      <c r="C9">
+        <v>-0.07069966601130109</v>
+      </c>
+      <c r="D9">
+        <v>0.07014763868031113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004304399885257135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005260329864890369</v>
+      </c>
+      <c r="C10">
+        <v>-0.05970233760869052</v>
+      </c>
+      <c r="D10">
+        <v>-0.2006483010550391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002611294217979009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005325657752493024</v>
+      </c>
+      <c r="C11">
+        <v>-0.08094346236396457</v>
+      </c>
+      <c r="D11">
+        <v>0.05891677679330633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003828527707687208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003927214258626454</v>
+      </c>
+      <c r="C12">
+        <v>-0.06467054949965452</v>
+      </c>
+      <c r="D12">
+        <v>0.04560390530578798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003457945028702677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008539128764922774</v>
+      </c>
+      <c r="C13">
+        <v>-0.06707164032832831</v>
+      </c>
+      <c r="D13">
+        <v>0.06848691312301235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001154395877879753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001365147625976529</v>
+      </c>
+      <c r="C14">
+        <v>-0.04617955205223007</v>
+      </c>
+      <c r="D14">
+        <v>0.007900758143628624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001051247342817623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005786953155962607</v>
+      </c>
+      <c r="C15">
+        <v>-0.04189577658019394</v>
+      </c>
+      <c r="D15">
+        <v>0.03161668069444042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00118537053037483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004935568098105378</v>
+      </c>
+      <c r="C16">
+        <v>-0.06671708231110168</v>
+      </c>
+      <c r="D16">
+        <v>0.04516314630557037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002456237133274768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008767144895687968</v>
+      </c>
+      <c r="C20">
+        <v>-0.0678877221860785</v>
+      </c>
+      <c r="D20">
+        <v>0.04660662467119301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005464199847029324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009787798552074053</v>
+      </c>
+      <c r="C21">
+        <v>-0.0229234755904735</v>
+      </c>
+      <c r="D21">
+        <v>0.03618630434324227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01787735750693029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006995795074515749</v>
+      </c>
+      <c r="C22">
+        <v>-0.0941746216029542</v>
+      </c>
+      <c r="D22">
+        <v>0.1001170846741087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01819647565453941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006812961056523559</v>
+      </c>
+      <c r="C23">
+        <v>-0.09499091206865193</v>
+      </c>
+      <c r="D23">
+        <v>0.1002508844474484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00177906628431123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005081538048026305</v>
+      </c>
+      <c r="C24">
+        <v>-0.07613652641384813</v>
+      </c>
+      <c r="D24">
+        <v>0.0579275949827916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003639448521203701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002765698976163863</v>
+      </c>
+      <c r="C25">
+        <v>-0.07872419787068273</v>
+      </c>
+      <c r="D25">
+        <v>0.06423112403569473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005838164520334231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00344387723717789</v>
+      </c>
+      <c r="C26">
+        <v>-0.04177508002131771</v>
+      </c>
+      <c r="D26">
+        <v>0.0234408819016199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004410620436749563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00119562946670108</v>
+      </c>
+      <c r="C28">
+        <v>-0.1069376122309811</v>
+      </c>
+      <c r="D28">
+        <v>-0.3193947875651814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.00110945146683482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002998413034585661</v>
+      </c>
+      <c r="C29">
+        <v>-0.04929733913785645</v>
+      </c>
+      <c r="D29">
+        <v>0.003949713239913002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003218130570610225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00896579258194531</v>
+      </c>
+      <c r="C30">
+        <v>-0.1452728113811957</v>
+      </c>
+      <c r="D30">
+        <v>0.1000023877399219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0007212524687468226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006083015249133226</v>
+      </c>
+      <c r="C31">
+        <v>-0.04541439431919637</v>
+      </c>
+      <c r="D31">
+        <v>0.03202715263074754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-9.768728258240717e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003797064469239511</v>
+      </c>
+      <c r="C32">
+        <v>-0.04044566937954369</v>
+      </c>
+      <c r="D32">
+        <v>0.02429301297990851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002970061975947494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007930831948954926</v>
+      </c>
+      <c r="C33">
+        <v>-0.08700656342989904</v>
+      </c>
+      <c r="D33">
+        <v>0.06980446518786596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004226288047137559</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003825333348084804</v>
+      </c>
+      <c r="C34">
+        <v>-0.05926024167727163</v>
+      </c>
+      <c r="D34">
+        <v>0.04934262977326014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002227983898602382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.00470348836714194</v>
+      </c>
+      <c r="C35">
+        <v>-0.03945736042759947</v>
+      </c>
+      <c r="D35">
+        <v>0.0130182353709487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00396433688348613</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001433188893002651</v>
+      </c>
+      <c r="C36">
+        <v>-0.02488502695287564</v>
+      </c>
+      <c r="D36">
+        <v>0.01952742234313999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002501264267699023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009441809811699925</v>
+      </c>
+      <c r="C38">
+        <v>-0.0337559443477824</v>
+      </c>
+      <c r="D38">
+        <v>0.02083785415013091</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01222492162703616</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001028924754492977</v>
+      </c>
+      <c r="C39">
+        <v>-0.1174617784815956</v>
+      </c>
+      <c r="D39">
+        <v>0.07045929191564425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00938888723924116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002043543619445307</v>
+      </c>
+      <c r="C40">
+        <v>-0.08868377651841108</v>
+      </c>
+      <c r="D40">
+        <v>0.01531076581363944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003598249242599361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007158336393403198</v>
+      </c>
+      <c r="C41">
+        <v>-0.03783611349103436</v>
+      </c>
+      <c r="D41">
+        <v>0.03501335698465984</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003151718448886998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003506750593357506</v>
+      </c>
+      <c r="C43">
+        <v>-0.05176614822532219</v>
+      </c>
+      <c r="D43">
+        <v>0.0237282843901356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002880281856397514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003118470023799379</v>
+      </c>
+      <c r="C44">
+        <v>-0.1130409619195751</v>
+      </c>
+      <c r="D44">
+        <v>0.07085038611903818</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001363642145736938</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00228519050939191</v>
+      </c>
+      <c r="C46">
+        <v>-0.03580981907021363</v>
+      </c>
+      <c r="D46">
+        <v>0.02698494779624171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-3.097947377657138e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002674398104391227</v>
+      </c>
+      <c r="C47">
+        <v>-0.03807348048986891</v>
+      </c>
+      <c r="D47">
+        <v>0.02569367112504553</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003584395015292643</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006339915277035366</v>
+      </c>
+      <c r="C48">
+        <v>-0.02910617478101275</v>
+      </c>
+      <c r="D48">
+        <v>0.03102512515634903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01347047693888732</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01462487780884354</v>
+      </c>
+      <c r="C49">
+        <v>-0.1839831271086978</v>
+      </c>
+      <c r="D49">
+        <v>0.0127150958079839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009053536903733528</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003495360139752939</v>
+      </c>
+      <c r="C50">
+        <v>-0.04414796804056053</v>
+      </c>
+      <c r="D50">
+        <v>0.03549470343375742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0004079248614287995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004266371030841778</v>
+      </c>
+      <c r="C51">
+        <v>-0.02532608169584726</v>
+      </c>
+      <c r="D51">
+        <v>0.02016420295062844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006738377803540621</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02017540075695398</v>
+      </c>
+      <c r="C53">
+        <v>-0.1691828406911593</v>
+      </c>
+      <c r="D53">
+        <v>0.03660350249793457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00145035196255953</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008642165557095663</v>
+      </c>
+      <c r="C54">
+        <v>-0.056164530112114</v>
+      </c>
+      <c r="D54">
+        <v>0.04181280797992801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004213059084523994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009199160099138556</v>
+      </c>
+      <c r="C55">
+        <v>-0.1103611121238313</v>
+      </c>
+      <c r="D55">
+        <v>0.04395126773845776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00314295983533573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01964412774949338</v>
+      </c>
+      <c r="C56">
+        <v>-0.176104033067921</v>
+      </c>
+      <c r="D56">
+        <v>0.03495779182373637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007085277824644072</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01947645137908639</v>
+      </c>
+      <c r="C58">
+        <v>-0.1115817548664715</v>
+      </c>
+      <c r="D58">
+        <v>0.05502798979296585</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006967556940258512</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008940624242222554</v>
+      </c>
+      <c r="C59">
+        <v>-0.1598277931418114</v>
+      </c>
+      <c r="D59">
+        <v>-0.3041585825866027</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004133007967862106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02301073652448128</v>
+      </c>
+      <c r="C60">
+        <v>-0.2237864543459822</v>
+      </c>
+      <c r="D60">
+        <v>0.01914334661017382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01419139988889998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002117277674569686</v>
+      </c>
+      <c r="C61">
+        <v>-0.09589870172195429</v>
+      </c>
+      <c r="D61">
+        <v>0.05623473100372015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1690164758335991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1440887295594916</v>
+      </c>
+      <c r="C62">
+        <v>-0.08911492075367219</v>
+      </c>
+      <c r="D62">
+        <v>0.04713717377541267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.000890217883146054</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006132457998211906</v>
+      </c>
+      <c r="C63">
+        <v>-0.05695875554910609</v>
+      </c>
+      <c r="D63">
+        <v>0.02395319332539469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004990738627897879</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01477554130297256</v>
+      </c>
+      <c r="C64">
+        <v>-0.1044735720472502</v>
+      </c>
+      <c r="D64">
+        <v>0.05825445101331201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00243550736312029</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01721718075173346</v>
+      </c>
+      <c r="C65">
+        <v>-0.1212391555243622</v>
+      </c>
+      <c r="D65">
+        <v>0.01643612874227497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007226200961210581</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01233483620134892</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595427141594554</v>
+      </c>
+      <c r="D66">
+        <v>0.1121568861704225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003857215503290438</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.0154971066507175</v>
+      </c>
+      <c r="C67">
+        <v>-0.06456450863227202</v>
+      </c>
+      <c r="D67">
+        <v>0.02936888962993491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006304807575059877</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.000429867743729573</v>
+      </c>
+      <c r="C68">
+        <v>-0.0878068725065262</v>
+      </c>
+      <c r="D68">
+        <v>-0.2519617853546874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00291288891892137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005957436468583821</v>
+      </c>
+      <c r="C69">
+        <v>-0.05099832644053884</v>
+      </c>
+      <c r="D69">
+        <v>0.03891820111968389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-7.508787153746779e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001867927073679943</v>
+      </c>
+      <c r="C70">
+        <v>-0.002847081124675003</v>
+      </c>
+      <c r="D70">
+        <v>0.001065784962481335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0004028919827645687</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005608042119876508</v>
+      </c>
+      <c r="C71">
+        <v>-0.09777500615014423</v>
+      </c>
+      <c r="D71">
+        <v>-0.299591637413501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004772612065653264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01542557585708996</v>
+      </c>
+      <c r="C72">
+        <v>-0.1497045630320467</v>
+      </c>
+      <c r="D72">
+        <v>0.02423370263282151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01293125074713242</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02906010846511105</v>
+      </c>
+      <c r="C73">
+        <v>-0.2764713790860454</v>
+      </c>
+      <c r="D73">
+        <v>0.04725076821702077</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004775161481317299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00132000292116444</v>
+      </c>
+      <c r="C74">
+        <v>-0.105042547260455</v>
+      </c>
+      <c r="D74">
+        <v>0.03913831711741011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002313588996203324</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01064332534324176</v>
+      </c>
+      <c r="C75">
+        <v>-0.1306329062994681</v>
+      </c>
+      <c r="D75">
+        <v>0.02334916157857637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009213155674251308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02123699506313714</v>
+      </c>
+      <c r="C76">
+        <v>-0.150944252215569</v>
+      </c>
+      <c r="D76">
+        <v>0.06416885487716495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001052285296932022</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02393206608939047</v>
+      </c>
+      <c r="C77">
+        <v>-0.1311858532326068</v>
+      </c>
+      <c r="D77">
+        <v>0.05513082330274202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007580388269455791</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01419950516605233</v>
+      </c>
+      <c r="C78">
+        <v>-0.09523526925525472</v>
+      </c>
+      <c r="D78">
+        <v>0.06610320258827766</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02399306308547854</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03694523465880609</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568341543392899</v>
+      </c>
+      <c r="D79">
+        <v>0.0324292955402565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004347511507660841</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01049706587345594</v>
+      </c>
+      <c r="C80">
+        <v>-0.04290454485034508</v>
+      </c>
+      <c r="D80">
+        <v>0.03031124109421866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008376120952797797</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01465404802760992</v>
+      </c>
+      <c r="C81">
+        <v>-0.1274795089397478</v>
+      </c>
+      <c r="D81">
+        <v>0.04385306708155802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005914553078712953</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01952606063912699</v>
+      </c>
+      <c r="C82">
+        <v>-0.1455396343565183</v>
+      </c>
+      <c r="D82">
+        <v>0.04201280174084086</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008771829536002956</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01001147849139956</v>
+      </c>
+      <c r="C83">
+        <v>-0.05759677939601731</v>
+      </c>
+      <c r="D83">
+        <v>0.05431228509804112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01310146290082216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01163820577794177</v>
+      </c>
+      <c r="C84">
+        <v>-0.03851170092932016</v>
+      </c>
+      <c r="D84">
+        <v>-0.007326687717056502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01526320903278337</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02779192080910529</v>
+      </c>
+      <c r="C85">
+        <v>-0.1304510554296192</v>
+      </c>
+      <c r="D85">
+        <v>0.04479085564274152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007802221306197842</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005361895180791443</v>
+      </c>
+      <c r="C86">
+        <v>-0.04882917757491011</v>
+      </c>
+      <c r="D86">
+        <v>0.02384030792794094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004804667791102561</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01027651947233769</v>
+      </c>
+      <c r="C87">
+        <v>-0.1333309786358747</v>
+      </c>
+      <c r="D87">
+        <v>0.06341689658325422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01292117861213738</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003095823180146542</v>
+      </c>
+      <c r="C88">
+        <v>-0.0674439018022783</v>
+      </c>
+      <c r="D88">
+        <v>0.00915343287202036</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01452403235389214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001976763613348813</v>
+      </c>
+      <c r="C89">
+        <v>-0.1461933031068389</v>
+      </c>
+      <c r="D89">
+        <v>-0.3508614711584028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002381991603557196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006598207926275301</v>
+      </c>
+      <c r="C90">
+        <v>-0.121520597043999</v>
+      </c>
+      <c r="D90">
+        <v>-0.3243008515138737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001041443856228039</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01018521506840478</v>
+      </c>
+      <c r="C91">
+        <v>-0.1025598017780882</v>
+      </c>
+      <c r="D91">
+        <v>0.02485982770363622</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008812508549994765</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0001078087867799923</v>
+      </c>
+      <c r="C92">
+        <v>-0.1346628176746956</v>
+      </c>
+      <c r="D92">
+        <v>-0.335490123132422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0005104736493573075</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004554016515483165</v>
+      </c>
+      <c r="C93">
+        <v>-0.1051532442683555</v>
+      </c>
+      <c r="D93">
+        <v>-0.31423709798647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00428698575138359</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02226555939760583</v>
+      </c>
+      <c r="C94">
+        <v>-0.1537325066189337</v>
+      </c>
+      <c r="D94">
+        <v>0.0469591806257963</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.0048786904878696</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01607531451085526</v>
+      </c>
+      <c r="C95">
+        <v>-0.1274801879031475</v>
+      </c>
+      <c r="D95">
+        <v>0.06159505499096249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.00189299854513863</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03405709296800516</v>
+      </c>
+      <c r="C97">
+        <v>-0.1921251240531381</v>
+      </c>
+      <c r="D97">
+        <v>0.008306288218316747</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00436258774756155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03585460459077983</v>
+      </c>
+      <c r="C98">
+        <v>-0.2469936141691435</v>
+      </c>
+      <c r="D98">
+        <v>0.05361846621569049</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9836858771729509</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827156053001678</v>
+      </c>
+      <c r="C99">
+        <v>0.11174731701553</v>
+      </c>
+      <c r="D99">
+        <v>-0.02816130630639043</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001063079941260338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003043838556686687</v>
+      </c>
+      <c r="C101">
+        <v>-0.0493174495994215</v>
+      </c>
+      <c r="D101">
+        <v>0.004417151412666836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
